--- a/pytrends2.xlsx
+++ b/pytrends2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTX" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tests" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
         <v>28</v>
@@ -482,10 +482,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -499,7 +499,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>27</v>
@@ -508,18 +508,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -581,18 +581,69 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
         <v>81</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>2</v>
       </c>
     </row>

--- a/pytrends2.xlsx
+++ b/pytrends2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,19 +462,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,47 +482,47 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -530,121 +530,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>27</v>
-      </c>
-      <c r="C8" t="n">
-        <v>56</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>51</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>64</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="n">
-        <v>47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>81</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
